--- a/EGE/DEMO 2020/Задание 18/18.xlsx
+++ b/EGE/DEMO 2020/Задание 18/18.xlsx
@@ -1,34 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\К-ЕГЭ- 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm-fomis-1561\Documents\GitHub\it_class_2019\EGE\DEMO 2020\Задание 18\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1FD0E8-7507-4025-910D-6D3CDC372D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r>
+      <t xml:space="preserve">Квадрат разлинован на N×N клеток (1 &lt; N &lt; 17). Исполнитель Робот может
+перемещаться по клеткам, выполняя за одно перемещение одну из двух
+команд: вправо или вниз. По команде вправо Робот перемещается
+в соседнюю правую клетку, по команде вниз – в соседнюю нижнюю. При
+попытке выхода за границу квадрата Робот разрушается. Перед каждым
+запуском Робота в каждой клетке квадрата лежит монета достоинством
+от 1 до 100. Посетив клетку, Робот забирает монету с собой; это также
+относится к начальной и конечной клетке маршрута Робота.
+Определите максимальную и минимальную денежную сумму, которую
+может собрать Робот, пройдя из левой верхней клетки в правую нижнюю.
+В ответе укажите два числа – сначала максимальную сумму, затем
+минимальную.
+Исходные данные представляют собой электронную таблицу размером N×N,
+каждая ячейка которой соответствует клетке квадрата.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ответом должна быть пара чисел.</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -55,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -336,16 +393,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="220.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC812CE9-811B-48FB-9AAB-CC0CF3DC1491}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>51</v>
       </c>
@@ -377,7 +526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>57</v>
       </c>
@@ -409,7 +558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>63</v>
       </c>
@@ -441,7 +590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -473,7 +622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>99</v>
       </c>
@@ -505,7 +654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>35</v>
       </c>
@@ -537,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -569,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -601,7 +750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>22</v>
       </c>
@@ -633,7 +782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -663,6 +812,339 @@
       </c>
       <c r="J10">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A540BC-444C-4378-98A6-978261498FC8}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>56</v>
+      </c>
+      <c r="C1">
+        <v>27</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>27</v>
+      </c>
+      <c r="F1">
+        <v>84</v>
+      </c>
+      <c r="G1">
+        <v>81</v>
+      </c>
+      <c r="H1">
+        <v>49</v>
+      </c>
+      <c r="I1">
+        <v>49</v>
+      </c>
+      <c r="J1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>66</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>81</v>
+      </c>
+      <c r="J2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>89</v>
+      </c>
+      <c r="J3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>95</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>84</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>85</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>94</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>92</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
